--- a/medicine/Psychotrope/Tongerlo_(bière)/Tongerlo_(bière).xlsx
+++ b/medicine/Psychotrope/Tongerlo_(bière)/Tongerlo_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tongerlo_(bi%C3%A8re)</t>
+          <t>Tongerlo_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Tongerlo est une  bière d'abbaye belge brassée  par la  brasserie Haacht  située à Boortmeerbeek dans la province du Brabant flamand et se référant à l'abbaye de Tongerlo en province d'Anvers. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tongerlo_(bi%C3%A8re)</t>
+          <t>Tongerlo_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à la révolution française, la Tongerlo est brassée au sein de son abbaye. Après la réouverture de l'abbaye en 1840, une petite brasserie est recréée. Elle existe jusqu'à la fin de la Seconde Guerre mondiale.
 En 1954, Jean Van Milders produit la Tongerlo dans sa brasserie de Geel en accord avec l'abbaye de Tongerlo. La famille Van Milders arrête la production au début des années 70. Plusieurs autres brasseries se succèdent alors pour produire cette bière d'abbaye. Depuis 1990, elle est brassée par la brasserie Haacht.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tongerlo_(bi%C3%A8re)</t>
+          <t>Tongerlo_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe actuellement trois bières d'abbaye traditionnelles ainsi qu'une bière de saison commercialisées sous la protection du logo Bière belge d'Abbaye reconnue :
 La Tongerlo Brune est une bière brune sucrée titrant 6,5 % d'alcool.
